--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Adam23</t>
+  </si>
+  <si>
+    <t>Itgb3</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adam23</t>
-  </si>
-  <si>
-    <t>Itgb3</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H2">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I2">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J2">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N2">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O2">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P2">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q2">
-        <v>0.3154455688735</v>
+        <v>3.94281250439925</v>
       </c>
       <c r="R2">
-        <v>1.261782275494</v>
+        <v>15.771250017597</v>
       </c>
       <c r="S2">
-        <v>0.00100859554267064</v>
+        <v>0.005223778795061636</v>
       </c>
       <c r="T2">
-        <v>0.0005717760026056153</v>
+        <v>0.002877268831968749</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H3">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I3">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J3">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P3">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q3">
-        <v>0.07542119218899998</v>
+        <v>0.6055640742864999</v>
       </c>
       <c r="R3">
-        <v>0.4525271531339999</v>
+        <v>3.633384445718999</v>
       </c>
       <c r="S3">
-        <v>0.0002411493004526446</v>
+        <v>0.0008023036263528671</v>
       </c>
       <c r="T3">
-        <v>0.0002050624515137976</v>
+        <v>0.0006628658989340018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H4">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I4">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J4">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N4">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O4">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P4">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q4">
-        <v>0.014222888868</v>
+        <v>0.2555991321033333</v>
       </c>
       <c r="R4">
-        <v>0.08533733320799999</v>
+        <v>1.53359479262</v>
       </c>
       <c r="S4">
-        <v>4.547580860746645E-05</v>
+        <v>0.0003386398224180809</v>
       </c>
       <c r="T4">
-        <v>3.86705695604976E-05</v>
+        <v>0.0002797853367838136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H5">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I5">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J5">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N5">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O5">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P5">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q5">
-        <v>0.034764201385</v>
+        <v>0.37386791270425</v>
       </c>
       <c r="R5">
-        <v>0.13905680554</v>
+        <v>1.495471650817</v>
       </c>
       <c r="S5">
-        <v>0.0001111539423001895</v>
+        <v>0.0004953325252872981</v>
       </c>
       <c r="T5">
-        <v>6.301352139031982E-05</v>
+        <v>0.0002728302427003321</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H6">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I6">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J6">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N6">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O6">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P6">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q6">
-        <v>0.2274147968753334</v>
+        <v>6.895731598666834</v>
       </c>
       <c r="R6">
-        <v>1.364488781252</v>
+        <v>41.374389592001</v>
       </c>
       <c r="S6">
-        <v>0.000727128776241558</v>
+        <v>0.009136061240893518</v>
       </c>
       <c r="T6">
-        <v>0.0006183174039586408</v>
+        <v>0.007548243892016819</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.056827</v>
+        <v>0.4562695</v>
       </c>
       <c r="H7">
-        <v>0.113654</v>
+        <v>0.912539</v>
       </c>
       <c r="I7">
-        <v>0.002198372771388981</v>
+        <v>0.01609359429837405</v>
       </c>
       <c r="J7">
-        <v>0.001552001951971484</v>
+        <v>0.01172153108534722</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N7">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O7">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P7">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q7">
-        <v>0.02028837554</v>
+        <v>0.0735748256835</v>
       </c>
       <c r="R7">
-        <v>0.12173025324</v>
+        <v>0.441448954101</v>
       </c>
       <c r="S7">
-        <v>6.486940111648236E-05</v>
+        <v>9.74782883606543E-05</v>
       </c>
       <c r="T7">
-        <v>5.516200294261261E-05</v>
+        <v>8.053688294350815E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>63.325338</v>
       </c>
       <c r="I8">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J8">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N8">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O8">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P8">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q8">
-        <v>117.172572131303</v>
+        <v>182.406768011529</v>
       </c>
       <c r="R8">
-        <v>703.0354327878181</v>
+        <v>1094.440608069174</v>
       </c>
       <c r="S8">
-        <v>0.3746438233287679</v>
+        <v>0.2416682522314194</v>
       </c>
       <c r="T8">
-        <v>0.3185801522629162</v>
+        <v>0.1996671060648216</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>63.325338</v>
       </c>
       <c r="I9">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J9">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P9">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q9">
         <v>28.015277290322</v>
@@ -1013,10 +1013,10 @@
         <v>252.137495612898</v>
       </c>
       <c r="S9">
-        <v>0.08957514890003739</v>
+        <v>0.03711706079953552</v>
       </c>
       <c r="T9">
-        <v>0.1142559791403721</v>
+        <v>0.04599935684794788</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>63.325338</v>
       </c>
       <c r="I10">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J10">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N10">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O10">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P10">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q10">
-        <v>5.283106298664</v>
+        <v>11.82481072622667</v>
       </c>
       <c r="R10">
-        <v>47.547956687976</v>
+        <v>106.42329653604</v>
       </c>
       <c r="S10">
-        <v>0.01689203460145777</v>
+        <v>0.01566653130433143</v>
       </c>
       <c r="T10">
-        <v>0.02154633262420172</v>
+        <v>0.01941560965534496</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>63.325338</v>
       </c>
       <c r="I11">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J11">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N11">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O11">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P11">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q11">
-        <v>12.91319738273</v>
+        <v>17.296292315069</v>
       </c>
       <c r="R11">
-        <v>77.47918429638001</v>
+        <v>103.777753890414</v>
       </c>
       <c r="S11">
-        <v>0.04128824306633583</v>
+        <v>0.02291562302996489</v>
       </c>
       <c r="T11">
-        <v>0.03510965333918942</v>
+        <v>0.01893296323293641</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>63.325338</v>
       </c>
       <c r="I12">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J12">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N12">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O12">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P12">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q12">
-        <v>84.47345380618269</v>
+        <v>319.0179884497047</v>
       </c>
       <c r="R12">
-        <v>760.2610842556441</v>
+        <v>2871.161896047342</v>
       </c>
       <c r="S12">
-        <v>0.270092711357999</v>
+        <v>0.4226626047896995</v>
       </c>
       <c r="T12">
-        <v>0.3445119274021458</v>
+        <v>0.5238078545337794</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>63.325338</v>
       </c>
       <c r="I13">
-        <v>0.8165877651949714</v>
+        <v>0.7445397209174328</v>
       </c>
       <c r="J13">
-        <v>0.864739016534869</v>
+        <v>0.8134117203287967</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N13">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O13">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P13">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q13">
-        <v>7.536137390920001</v>
+        <v>3.403800242838</v>
       </c>
       <c r="R13">
-        <v>67.82523651828001</v>
+        <v>30.63420218554201</v>
       </c>
       <c r="S13">
-        <v>0.02409580394037355</v>
+        <v>0.004509648762482042</v>
       </c>
       <c r="T13">
-        <v>0.03073497176604377</v>
+        <v>0.005588829993966382</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H14">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I14">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J14">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N14">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O14">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P14">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q14">
-        <v>0.2414880053451667</v>
+        <v>0.058438985504</v>
       </c>
       <c r="R14">
-        <v>1.448928032071</v>
+        <v>0.350633913024</v>
       </c>
       <c r="S14">
-        <v>0.0007721260015455557</v>
+        <v>7.742501905431658E-05</v>
       </c>
       <c r="T14">
-        <v>0.0006565810079369093</v>
+        <v>6.396880578581517E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H15">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I15">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J15">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P15">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q15">
-        <v>0.05773837092566667</v>
+        <v>0.008975458538666665</v>
       </c>
       <c r="R15">
-        <v>0.519645338331</v>
+        <v>0.080779126848</v>
       </c>
       <c r="S15">
-        <v>0.0001846108149962465</v>
+        <v>1.189146324810736E-05</v>
       </c>
       <c r="T15">
-        <v>0.000235477023329731</v>
+        <v>1.473714916028031E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H16">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I16">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J16">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N16">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O16">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P16">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q16">
-        <v>0.010888271708</v>
+        <v>0.003788400782222222</v>
       </c>
       <c r="R16">
-        <v>0.09799444537200001</v>
+        <v>0.03409560704</v>
       </c>
       <c r="S16">
-        <v>3.481381067197549E-05</v>
+        <v>5.019200799248415E-06</v>
       </c>
       <c r="T16">
-        <v>4.440613356248002E-05</v>
+        <v>6.220320350878167E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H17">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I17">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J17">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N17">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O17">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P17">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q17">
-        <v>0.02661358560166667</v>
+        <v>0.005541339210666667</v>
       </c>
       <c r="R17">
-        <v>0.15968151361</v>
+        <v>0.033248035264</v>
       </c>
       <c r="S17">
-        <v>8.509342485989663E-05</v>
+        <v>7.341645141032294E-06</v>
       </c>
       <c r="T17">
-        <v>7.235959746398748E-05</v>
+        <v>6.06569139938604E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H18">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I18">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J18">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N18">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O18">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P18">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q18">
-        <v>0.1740964245575556</v>
+        <v>0.1022061177102222</v>
       </c>
       <c r="R18">
-        <v>1.566867821018</v>
+        <v>0.9198550593920001</v>
       </c>
       <c r="S18">
-        <v>0.0005566503230041</v>
+        <v>0.0001354114987269934</v>
       </c>
       <c r="T18">
-        <v>0.0007100253638943301</v>
+        <v>0.0001678161394540258</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.04350366666666667</v>
+        <v>0.006762666666666667</v>
       </c>
       <c r="H19">
-        <v>0.130511</v>
+        <v>0.020288</v>
       </c>
       <c r="I19">
-        <v>0.001682954867502814</v>
+        <v>0.0002385336160064851</v>
       </c>
       <c r="J19">
-        <v>0.001782192679129202</v>
+        <v>0.0002605986403425218</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N19">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O19">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P19">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q19">
-        <v>0.01553167907333334</v>
+        <v>0.001090500288</v>
       </c>
       <c r="R19">
-        <v>0.13978511166</v>
+        <v>0.009814502592000002</v>
       </c>
       <c r="S19">
-        <v>4.966049242503992E-05</v>
+        <v>1.44478903678707E-06</v>
       </c>
       <c r="T19">
-        <v>6.334355294176462E-05</v>
+        <v>1.790534192136329E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H20">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I20">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J20">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N20">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O20">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P20">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q20">
-        <v>23.65449034680875</v>
+        <v>58.2881611881495</v>
       </c>
       <c r="R20">
-        <v>94.617961387235</v>
+        <v>233.152644752598</v>
       </c>
       <c r="S20">
-        <v>0.07563210861745989</v>
+        <v>0.07722519396447514</v>
       </c>
       <c r="T20">
-        <v>0.04287608154545119</v>
+        <v>0.04253580642556739</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H21">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I21">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J21">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P21">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q21">
-        <v>5.655650415222499</v>
+        <v>8.952293910090999</v>
       </c>
       <c r="R21">
-        <v>33.933902491335</v>
+        <v>53.71376346054599</v>
       </c>
       <c r="S21">
-        <v>0.01808319520881997</v>
+        <v>0.01186077274598127</v>
       </c>
       <c r="T21">
-        <v>0.0153771308221206</v>
+        <v>0.009799409512900413</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H22">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I22">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J22">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N22">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O22">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P22">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q22">
-        <v>1.06653958917</v>
+        <v>3.778623354513333</v>
       </c>
       <c r="R22">
-        <v>6.399237535019999</v>
+        <v>22.67174012708</v>
       </c>
       <c r="S22">
-        <v>0.003410119468661857</v>
+        <v>0.005006246817926972</v>
       </c>
       <c r="T22">
-        <v>0.002899811265826381</v>
+        <v>0.004136177611879729</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H23">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I23">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J23">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N23">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O23">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P23">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q23">
-        <v>2.6068822872125</v>
+        <v>5.5270376500195</v>
       </c>
       <c r="R23">
-        <v>10.42752914885</v>
+        <v>22.108150600078</v>
       </c>
       <c r="S23">
-        <v>0.008335161798401953</v>
+        <v>0.007322697197359699</v>
       </c>
       <c r="T23">
-        <v>0.004725229581663544</v>
+        <v>0.004033357697271974</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H24">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I24">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J24">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N24">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O24">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P24">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q24">
-        <v>17.05327843602167</v>
+        <v>101.9423354483223</v>
       </c>
       <c r="R24">
-        <v>102.31967061613</v>
+        <v>611.654012689934</v>
       </c>
       <c r="S24">
-        <v>0.05452560541559003</v>
+        <v>0.1350620171869281</v>
       </c>
       <c r="T24">
-        <v>0.04636610720332809</v>
+        <v>0.1115886835030666</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.2613175</v>
+        <v>6.745213</v>
       </c>
       <c r="H25">
-        <v>8.522634999999999</v>
+        <v>13.490426</v>
       </c>
       <c r="I25">
-        <v>0.1648505879642311</v>
+        <v>0.2379179881147404</v>
       </c>
       <c r="J25">
-        <v>0.1163808238684119</v>
+        <v>0.1732840434365834</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N25">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O25">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P25">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q25">
-        <v>1.52137557385</v>
+        <v>1.087685831889</v>
       </c>
       <c r="R25">
-        <v>9.1282534431</v>
+        <v>6.526114991334</v>
       </c>
       <c r="S25">
-        <v>0.004864397455297408</v>
+        <v>0.001441060202069246</v>
       </c>
       <c r="T25">
-        <v>0.004136463450022113</v>
+        <v>0.001190608685897325</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H26">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I26">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J26">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.550980500000001</v>
+        <v>8.6414115</v>
       </c>
       <c r="N26">
-        <v>11.101961</v>
+        <v>17.282823</v>
       </c>
       <c r="O26">
-        <v>0.4587918645086687</v>
+        <v>0.324587453754156</v>
       </c>
       <c r="P26">
-        <v>0.3684119094562331</v>
+        <v>0.245468685875478</v>
       </c>
       <c r="Q26">
-        <v>0.7013182776773333</v>
+        <v>0.296481067624</v>
       </c>
       <c r="R26">
-        <v>4.207909666064</v>
+        <v>1.778886405744</v>
       </c>
       <c r="S26">
-        <v>0.002242372563307328</v>
+        <v>0.0003928037441454404</v>
       </c>
       <c r="T26">
-        <v>0.001906812145736981</v>
+        <v>0.0003245357473345023</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H27">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I27">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J27">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.981621</v>
       </c>
       <c r="O27">
-        <v>0.1096944538210784</v>
+        <v>0.04985235811703818</v>
       </c>
       <c r="P27">
-        <v>0.1321277020646205</v>
+        <v>0.05655113603398049</v>
       </c>
       <c r="Q27">
-        <v>0.1676811019893333</v>
+        <v>0.04553558736533332</v>
       </c>
       <c r="R27">
-        <v>1.509129917904</v>
+        <v>0.4098202862879999</v>
       </c>
       <c r="S27">
-        <v>0.0005361381764229631</v>
+        <v>6.032948192040588E-05</v>
       </c>
       <c r="T27">
-        <v>0.0006838614621796474</v>
+        <v>7.47666250379205E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H28">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I28">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J28">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.250284</v>
+        <v>0.5601933333333333</v>
       </c>
       <c r="N28">
-        <v>0.750852</v>
+        <v>1.68058</v>
       </c>
       <c r="O28">
-        <v>0.02068612257180288</v>
+        <v>0.02104190127697539</v>
       </c>
       <c r="P28">
-        <v>0.02491657276034671</v>
+        <v>0.0238693507483477</v>
       </c>
       <c r="Q28">
-        <v>0.031621214272</v>
+        <v>0.01921985980444444</v>
       </c>
       <c r="R28">
-        <v>0.284590928448</v>
+        <v>0.17297873824</v>
       </c>
       <c r="S28">
-        <v>0.0001011046561296353</v>
+        <v>2.546413149965698E-05</v>
       </c>
       <c r="T28">
-        <v>0.0001289622358834537</v>
+        <v>3.155782398832748E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H29">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I29">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J29">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.611755</v>
+        <v>0.8194015</v>
       </c>
       <c r="N29">
-        <v>1.22351</v>
+        <v>1.638803</v>
       </c>
       <c r="O29">
-        <v>0.05056191731758031</v>
+        <v>0.03077824108796764</v>
       </c>
       <c r="P29">
-        <v>0.04060144467619692</v>
+        <v>0.02327599020245657</v>
       </c>
       <c r="Q29">
-        <v>0.07728994237333334</v>
+        <v>0.02811311919733333</v>
       </c>
       <c r="R29">
-        <v>0.46373965424</v>
+        <v>0.168678715184</v>
       </c>
       <c r="S29">
-        <v>0.0002471243823439975</v>
+        <v>3.724669021471668E-05</v>
       </c>
       <c r="T29">
-        <v>0.0002101433907424691</v>
+        <v>3.077333814846246E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H30">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I30">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J30">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.001879333333334</v>
+        <v>15.11328633333333</v>
       </c>
       <c r="N30">
-        <v>12.005638</v>
+        <v>45.339859</v>
       </c>
       <c r="O30">
-        <v>0.3307577248521605</v>
+        <v>0.5676830838103418</v>
       </c>
       <c r="P30">
-        <v>0.3983998880756573</v>
+        <v>0.6439639870471084</v>
       </c>
       <c r="Q30">
-        <v>0.5056027708124445</v>
+        <v>0.5185267785724444</v>
       </c>
       <c r="R30">
-        <v>4.550424937312</v>
+        <v>4.666741007152</v>
       </c>
       <c r="S30">
-        <v>0.001616598080056899</v>
+        <v>0.00068698909409365</v>
       </c>
       <c r="T30">
-        <v>0.002062022768384922</v>
+        <v>0.0008513889787915991</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.1263413333333333</v>
+        <v>0.03430933333333333</v>
       </c>
       <c r="H31">
-        <v>0.379024</v>
+        <v>0.102928</v>
       </c>
       <c r="I31">
-        <v>0.00488755955973356</v>
+        <v>0.00121016305344615</v>
       </c>
       <c r="J31">
-        <v>0.005175761414855964</v>
+        <v>0.00132210650893016</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3570200000000001</v>
+        <v>0.161253</v>
       </c>
       <c r="N31">
-        <v>1.07106</v>
+        <v>0.4837590000000001</v>
       </c>
       <c r="O31">
-        <v>0.02950791692870925</v>
+        <v>0.00605696195352101</v>
       </c>
       <c r="P31">
-        <v>0.03554248296694549</v>
+        <v>0.006870850092628699</v>
       </c>
       <c r="Q31">
-        <v>0.04510638282666667</v>
+        <v>0.005532482928</v>
       </c>
       <c r="R31">
-        <v>0.40595744544</v>
+        <v>0.049792346352</v>
       </c>
       <c r="S31">
-        <v>0.0001442217014727366</v>
+        <v>7.329911572280143E-06</v>
       </c>
       <c r="T31">
-        <v>0.0001839594119284918</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H32">
-        <v>0.759416</v>
-      </c>
-      <c r="I32">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J32">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>5.550980500000001</v>
-      </c>
-      <c r="N32">
-        <v>11.101961</v>
-      </c>
-      <c r="O32">
-        <v>0.4587918645086687</v>
-      </c>
-      <c r="P32">
-        <v>0.3684119094562331</v>
-      </c>
-      <c r="Q32">
-        <v>1.405167802462667</v>
-      </c>
-      <c r="R32">
-        <v>8.431006814776001</v>
-      </c>
-      <c r="S32">
-        <v>0.004492838454917361</v>
-      </c>
-      <c r="T32">
-        <v>0.003820506491586271</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H33">
-        <v>0.759416</v>
-      </c>
-      <c r="I33">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J33">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.327207</v>
-      </c>
-      <c r="N33">
-        <v>3.981621</v>
-      </c>
-      <c r="O33">
-        <v>0.1096944538210784</v>
-      </c>
-      <c r="P33">
-        <v>0.1321277020646205</v>
-      </c>
-      <c r="Q33">
-        <v>0.3359674103706666</v>
-      </c>
-      <c r="R33">
-        <v>3.023706693336</v>
-      </c>
-      <c r="S33">
-        <v>0.001074211420349162</v>
-      </c>
-      <c r="T33">
-        <v>0.001370191165104635</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.759416</v>
-      </c>
-      <c r="I34">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J34">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.250284</v>
-      </c>
-      <c r="N34">
-        <v>0.750852</v>
-      </c>
-      <c r="O34">
-        <v>0.02068612257180288</v>
-      </c>
-      <c r="P34">
-        <v>0.02491657276034671</v>
-      </c>
-      <c r="Q34">
-        <v>0.063356558048</v>
-      </c>
-      <c r="R34">
-        <v>0.570209022432</v>
-      </c>
-      <c r="S34">
-        <v>0.0002025742262741757</v>
-      </c>
-      <c r="T34">
-        <v>0.0002583899313121831</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H35">
-        <v>0.759416</v>
-      </c>
-      <c r="I35">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J35">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.611755</v>
-      </c>
-      <c r="N35">
-        <v>1.22351</v>
-      </c>
-      <c r="O35">
-        <v>0.05056191731758031</v>
-      </c>
-      <c r="P35">
-        <v>0.04060144467619692</v>
-      </c>
-      <c r="Q35">
-        <v>0.1548588450266667</v>
-      </c>
-      <c r="R35">
-        <v>0.92915307016</v>
-      </c>
-      <c r="S35">
-        <v>0.0004951407033384408</v>
-      </c>
-      <c r="T35">
-        <v>0.0004210452457471899</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.759416</v>
-      </c>
-      <c r="I36">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J36">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>4.001879333333334</v>
-      </c>
-      <c r="N36">
-        <v>12.005638</v>
-      </c>
-      <c r="O36">
-        <v>0.3307577248521605</v>
-      </c>
-      <c r="P36">
-        <v>0.3983998880756573</v>
-      </c>
-      <c r="Q36">
-        <v>1.013030398600889</v>
-      </c>
-      <c r="R36">
-        <v>9.117273587408</v>
-      </c>
-      <c r="S36">
-        <v>0.003239030899268886</v>
-      </c>
-      <c r="T36">
-        <v>0.004131487933945618</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.2531386666666667</v>
-      </c>
-      <c r="H37">
-        <v>0.759416</v>
-      </c>
-      <c r="I37">
-        <v>0.009792759642172055</v>
-      </c>
-      <c r="J37">
-        <v>0.01037020355076263</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.3570200000000001</v>
-      </c>
-      <c r="N37">
-        <v>1.07106</v>
-      </c>
-      <c r="O37">
-        <v>0.02950791692870925</v>
-      </c>
-      <c r="P37">
-        <v>0.03554248296694549</v>
-      </c>
-      <c r="Q37">
-        <v>0.09037556677333335</v>
-      </c>
-      <c r="R37">
-        <v>0.81338010096</v>
-      </c>
-      <c r="S37">
-        <v>0.0002889639380240295</v>
-      </c>
-      <c r="T37">
-        <v>0.0003685827830667386</v>
+        <v>9.083995629347793E-06</v>
       </c>
     </row>
   </sheetData>
